--- a/EWBRevamp.xlsx
+++ b/EWBRevamp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperSam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Column!$A$1:$N$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Column!$A$1:$N$74</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="161">
   <si>
     <t>Table Name</t>
   </si>
@@ -1071,13 +1071,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,105 +3123,99 @@
       <c r="A52" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="2">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="2">
         <v>30</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="O52" t="s">
+      <c r="F53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="O53" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="2">
-        <v>70</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>26</v>
@@ -3232,9 +3226,7 @@
       <c r="K54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
         <v>27</v>
       </c>
@@ -3243,20 +3235,20 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>122</v>
+      <c r="A55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>26</v>
@@ -3265,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>26</v>
@@ -3276,23 +3268,31 @@
       <c r="K55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L55" s="2"/>
+      <c r="L55" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>26</v>
@@ -3312,20 +3312,20 @@
       <c r="K56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3348,18 +3348,20 @@
       <c r="K57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>65</v>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>116</v>
+      <c r="D58" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3368,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>26</v>
@@ -3383,31 +3385,26 @@
         <v>5</v>
       </c>
       <c r="L58" s="2"/>
-      <c r="O58" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>26</v>
@@ -3421,8 +3418,9 @@
       <c r="K59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>138</v>
+      <c r="L59" s="2"/>
+      <c r="O59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,19 +3428,19 @@
         <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>5</v>
@@ -3459,22 +3457,22 @@
       <c r="K60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>65</v>
+      <c r="L60" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>88</v>
+      <c r="B61" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -3497,29 +3495,31 @@
       <c r="K61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>89</v>
+      <c r="B62" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>26</v>
@@ -3540,22 +3540,22 @@
         <v>144</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E63" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>26</v>
@@ -3575,14 +3575,14 @@
       <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>91</v>
+      <c r="B64" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -3611,23 +3611,23 @@
       <c r="A65" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>92</v>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E65" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>26</v>
@@ -3648,22 +3648,22 @@
         <v>144</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E66" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>26</v>
@@ -3678,25 +3678,22 @@
         <v>5</v>
       </c>
       <c r="L66" s="2"/>
-      <c r="O66" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>93</v>
+      <c r="B67" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="2">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>26</v>
@@ -3705,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>26</v>
@@ -3717,16 +3714,19 @@
         <v>5</v>
       </c>
       <c r="L67" s="2"/>
+      <c r="O67" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>25</v>
@@ -3738,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>5</v>
@@ -3758,23 +3758,23 @@
       <c r="A69" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>95</v>
+      <c r="B69" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>5</v>
@@ -3794,17 +3794,17 @@
       <c r="A70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>83</v>
+      <c r="B70" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E70" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>26</v>
@@ -3831,14 +3831,16 @@
         <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>26</v>
@@ -3859,27 +3861,22 @@
         <v>5</v>
       </c>
       <c r="L71" s="2"/>
-      <c r="O71" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="2">
+        <v>30</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -3898,16 +3895,19 @@
         <v>5</v>
       </c>
       <c r="L72" s="2"/>
+      <c r="O72" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>54</v>
@@ -3940,13 +3940,13 @@
         <v>144</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>116</v>
+        <v>148</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         <v>144</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>5</v>
@@ -4012,19 +4012,19 @@
         <v>144</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>5</v>
@@ -4043,8 +4043,44 @@
       </c>
       <c r="L76" s="2"/>
     </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N73"/>
+  <autoFilter ref="A1:N74"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4054,7 +4090,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EWBRevamp.xlsx
+++ b/EWBRevamp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="5085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="5088" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Column!$A$1:$N$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Column!$A$1:$N$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="162">
   <si>
     <t>Table Name</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>Account Name (Long)</t>
+  </si>
+  <si>
+    <t>Bank Details</t>
   </si>
 </sst>
 </file>
@@ -871,22 +874,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -920,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -935,14 +938,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>119</v>
       </c>
@@ -950,9 +955,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -965,16 +970,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>119</v>
       </c>
@@ -982,14 +985,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
@@ -997,16 +1002,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>119</v>
       </c>
@@ -1014,14 +1017,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>119</v>
       </c>
@@ -1029,16 +1034,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>119</v>
       </c>
@@ -1046,20 +1049,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>159</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1071,33 +1091,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1573,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1609,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1645,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1661,205 +1681,209 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
         <v>255</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2">
         <v>12</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
         <v>255</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
         <v>30</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="O18" t="s">
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="O19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
@@ -1871,32 +1895,26 @@
         <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>26</v>
@@ -1924,16 +1942,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>5</v>
@@ -1966,15 +1982,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -1983,13 +1999,13 @@
         <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>26</v>
@@ -2008,21 +2024,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
@@ -2050,21 +2066,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
@@ -2092,24 +2108,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>5</v>
@@ -2124,11 +2140,9 @@
         <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2136,28 +2150,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>26</v>
@@ -2168,7 +2184,9 @@
       <c r="K27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2176,19 +2194,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>26</v>
@@ -2216,30 +2234,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>26</v>
@@ -2248,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
@@ -2258,25 +2274,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="2">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
@@ -2298,30 +2316,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>26</v>
@@ -2340,14 +2356,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2380,30 +2398,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>26</v>
@@ -2422,24 +2438,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>5</v>
@@ -2454,11 +2470,9 @@
         <v>5</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
         <v>27</v>
       </c>
@@ -2466,28 +2480,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>26</v>
@@ -2498,7 +2514,9 @@
       <c r="K35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="M35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2506,12 +2524,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -2546,27 +2564,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>26</v>
@@ -2588,15 +2604,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>58</v>
@@ -2630,30 +2646,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>26</v>
@@ -2662,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
@@ -2672,30 +2688,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>26</v>
@@ -2707,22 +2723,28 @@
         <v>5</v>
       </c>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="2">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>26</v>
@@ -2731,7 +2753,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>26</v>
@@ -2744,27 +2766,27 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>160</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="2">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
@@ -2780,23 +2802,23 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="2">
-        <v>50</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2816,21 +2838,21 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>5</v>
@@ -2852,24 +2874,24 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>255</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>5</v>
@@ -2888,27 +2910,27 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="2">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>5</v>
@@ -2924,59 +2946,51 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>25</v>
@@ -3000,101 +3014,109 @@
         <v>5</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="2">
-        <v>50</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>26</v>
@@ -3103,7 +3125,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>26</v>
@@ -3115,34 +3137,31 @@
         <v>5</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="O51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>26</v>
@@ -3154,110 +3173,107 @@
         <v>5</v>
       </c>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="2">
+        <v>70</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2">
         <v>30</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="O53" t="s">
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="O54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2">
-        <v>70</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>26</v>
@@ -3268,9 +3284,7 @@
       <c r="K55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
         <v>27</v>
       </c>
@@ -3278,21 +3292,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>122</v>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>26</v>
@@ -3301,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>26</v>
@@ -3312,56 +3326,64 @@
       <c r="K56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="2">
+        <v>50</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4" t="s">
-        <v>97</v>
+      <c r="D58" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3384,18 +3406,20 @@
       <c r="K58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>65</v>
+      <c r="B59" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
+      <c r="D59" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3404,7 +3428,7 @@
         <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>26</v>
@@ -3419,66 +3443,62 @@
         <v>5</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="O59" t="s">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="O60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="2">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>5</v>
@@ -3495,22 +3515,22 @@
       <c r="K61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L61" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>88</v>
+      <c r="B62" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -3533,29 +3553,31 @@
       <c r="K62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>89</v>
+      <c r="B63" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E63" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>26</v>
@@ -3571,27 +3593,27 @@
       </c>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>26</v>
@@ -3607,18 +3629,18 @@
       </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>91</v>
+      <c r="B65" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -3643,27 +3665,27 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>92</v>
+      <c r="B66" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E66" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>26</v>
@@ -3679,27 +3701,27 @@
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>26</v>
@@ -3714,25 +3736,22 @@
         <v>5</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="O67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
+      <c r="B68" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="2">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>26</v>
@@ -3741,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>26</v>
@@ -3753,16 +3772,19 @@
         <v>5</v>
       </c>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>25</v>
@@ -3774,7 +3796,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>5</v>
@@ -3790,27 +3812,27 @@
       </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>95</v>
+      <c r="B70" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>5</v>
@@ -3826,21 +3848,21 @@
       </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>83</v>
+      <c r="B71" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E71" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>26</v>
@@ -3862,19 +3884,21 @@
       </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E72" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>26</v>
@@ -3895,27 +3919,22 @@
         <v>5</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="O72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="2">
+        <v>30</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -3934,16 +3953,19 @@
         <v>5</v>
       </c>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>54</v>
@@ -3971,18 +3993,18 @@
       </c>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>116</v>
+        <v>148</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -4007,24 +4029,24 @@
       </c>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>5</v>
@@ -4043,24 +4065,24 @@
       </c>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>5</v>
@@ -4079,8 +4101,44 @@
       </c>
       <c r="L77" s="2"/>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N74"/>
+  <autoFilter ref="A1:N75"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4093,9 +4151,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -4129,7 +4187,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4163,7 +4221,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -4197,47 +4255,47 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>158</v>
       </c>
